--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang4/05.DoiMoiBH/DoiMoiBH200420_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang4/05.DoiMoiBH/DoiMoiBH200420_KimLong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PhongKyThuat\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\thang4\06.DoiMoiBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang4\05.DoiMoiBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -50,15 +50,9 @@
     <t>Công ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
-    <t>ĐT :    +84 24 36400767       (Ext: 108   )  Fax:  +84 4 36400767</t>
-  </si>
-  <si>
     <t>Website: http://vnetgps.vn/</t>
   </si>
   <si>
-    <t>ĐC: Số 233 - 234, Lô, Khu ĐTM Đại Kim, Phường Đại Kim, Quận Hoàng Mai, Hà Nội</t>
-  </si>
-  <si>
     <t>BIÊN BẢN XÁC NHẬN TÌNH TRẠNG THIẾT BỊ</t>
   </si>
   <si>
@@ -89,31 +83,19 @@
     <t>(Ký, nghi rõ họ tên)</t>
   </si>
   <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
-    <t>Đổi mới thiết bị</t>
-  </si>
-  <si>
     <t>Đơn vị: Kim Long</t>
   </si>
   <si>
-    <t>ACT-01</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Hà nội, ngày 20 tháng 04 năm 2020</t>
-  </si>
-  <si>
-    <t>ACT01_0000000091</t>
-  </si>
-  <si>
-    <t>Không hiển thị lên Terminal</t>
-  </si>
-  <si>
-    <t>Lỗi phần cứng</t>
+    <t>ĐC: Tòa nhà Sơn Hà, Số 02, Phố Thanh Lâm, Phường Minh Khai, Quận Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Hà nội, ngày  tháng  năm 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐT:   </t>
   </si>
 </sst>
 </file>
@@ -575,6 +557,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -605,65 +620,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1042,77 +1024,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="38" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="40" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="4"/>
@@ -1120,69 +1102,55 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -1224,45 +1192,45 @@
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="G13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="50"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
-      <c r="B15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="54"/>
+      <c r="F15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
@@ -1312,20 +1280,20 @@
       <c r="A20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="51"/>
+      <c r="F20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -1339,28 +1307,13 @@
       <c r="I21" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="9"/>
     </row>
     <row r="62" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="C7:C8"/>
@@ -1373,9 +1326,24 @@
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="23" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
